--- a/workbooks/daily_steps.xlsx
+++ b/workbooks/daily_steps.xlsx
@@ -2,23 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\Google data analytics\course 8\week 2\case study 2\Fitabase Data 4.12.16-5.12.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GDAC-Capstone-Project\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F54A3C-EDFA-4EBE-A27D-F8946737D808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A59C9A-71F5-4F08-8916-941E02C58895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_stats" sheetId="2" r:id="rId1"/>
-    <sheet name="dailySteps_merged" sheetId="1" r:id="rId2"/>
+    <sheet name="daily_steps" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="9" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,13 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
-  <si>
-    <t>SAMPLE</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Row Labels</t>
   </si>
@@ -78,18 +72,6 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>Average of StepTotal</t>
-  </si>
-  <si>
-    <t>Total Average of StepTotal</t>
-  </si>
-  <si>
-    <t>Total Min of StepTotal</t>
-  </si>
-  <si>
-    <t>Min of StepTotal</t>
-  </si>
-  <si>
     <t>day_of_week</t>
   </si>
   <si>
@@ -102,10 +84,34 @@
     <t>id</t>
   </si>
   <si>
-    <t>Total Max of StepTotal</t>
+    <t>number_of_users</t>
   </si>
   <si>
-    <t>Max of StepTotal</t>
+    <t>Total average_steps</t>
+  </si>
+  <si>
+    <t>average_steps</t>
+  </si>
+  <si>
+    <t>Total minimum_steps</t>
+  </si>
+  <si>
+    <t>minimum_steps</t>
+  </si>
+  <si>
+    <t>Total maximum_steps</t>
+  </si>
+  <si>
+    <t>maximum_steps</t>
+  </si>
+  <si>
+    <t>Total average steps taken</t>
+  </si>
+  <si>
+    <t>Total minimum steps taken</t>
+  </si>
+  <si>
+    <t>Total maximum steps taken</t>
   </si>
 </sst>
 </file>
@@ -671,7 +677,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DELL" refreshedDate="44879.503098958332" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="941" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D1048576" sheet="dailySteps_merged"/>
+    <worksheetSource ref="A1:D1048576" sheet="daily_steps"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Id" numFmtId="0">
@@ -6818,7 +6824,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:AB40" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -7473,9 +7479,9 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Average of StepTotal" fld="2" subtotal="average" baseField="0" baseItem="13"/>
-    <dataField name="Min of StepTotal" fld="2" subtotal="min" baseField="0" baseItem="32"/>
-    <dataField name="Max of StepTotal" fld="2" subtotal="max" baseField="0" baseItem="0"/>
+    <dataField name="average_steps" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="minimum_steps" fld="2" subtotal="min" baseField="0" baseItem="0"/>
+    <dataField name="maximum_steps" fld="2" subtotal="max" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -7499,7 +7505,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="day_of_week" dataDxfId="0">
       <calculatedColumnFormula>TEXT(B2, "ddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="number_of_users"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7802,42 +7808,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AB42"/>
+  <dimension ref="A3:AB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="U29" workbookViewId="0">
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23" customWidth="1"/>
+    <col min="27" max="27" width="23.54296875" customWidth="1"/>
+    <col min="28" max="28" width="21.90625" customWidth="1"/>
     <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8.81640625" bestFit="1" customWidth="1"/>
@@ -7853,119 +7859,119 @@
   <sheetData>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" t="s">
+      <c r="N4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>6</v>
       </c>
-      <c r="N4" t="s">
+      <c r="T4" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" t="s">
-        <v>9</v>
-      </c>
       <c r="W4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="U5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
@@ -10592,7 +10598,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -10624,7 +10630,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B40" s="4">
         <v>7780.8666666666668</v>
@@ -10702,6 +10708,17 @@
         <v>36019</v>
       </c>
     </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="Z41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.35">
       <c r="C42">
         <f>COUNTIF(C6:C38, "&gt;=10000")</f>
@@ -10730,6 +10747,12 @@
       <c r="U42">
         <f>COUNTIF(U6:U38, "&gt;=10000")</f>
         <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="Z46">
+        <f>COUNTIF(Z6:Z38, "&gt;=10000")</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -10739,10 +10762,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E941"/>
+  <dimension ref="A1:E943"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10752,19 +10775,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -10781,6 +10804,10 @@
         <f t="shared" ref="D2:D65" si="0">TEXT(B2, "ddd")</f>
         <v>Tue</v>
       </c>
+      <c r="E2">
+        <f>COUNT(_xlfn.UNIQUE(A1:A941))</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -10796,9 +10823,6 @@
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -10814,10 +10838,6 @@
         <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="E4">
-        <f>COUNT(_xlfn.UNIQUE(A1:A941))</f>
-        <v>33</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -24872,6 +24892,12 @@
       <c r="D941" t="str">
         <f t="shared" si="14"/>
         <v>Thu</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C943">
+        <f>AVERAGE(C2:C941)</f>
+        <v>7637.9106382978725</v>
       </c>
     </row>
   </sheetData>
